--- a/medicine/Psychotrope/Secret_d'État_(film,_2014)/Secret_d'État_(film,_2014).xlsx
+++ b/medicine/Psychotrope/Secret_d'État_(film,_2014)/Secret_d'État_(film,_2014).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Secret_d%27%C3%89tat_(film,_2014)</t>
+          <t>Secret_d'État_(film,_2014)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Secret d'État (Kill the Messenger) est un thriller américain réalisé par Michael Cuesta sorti en 2014.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Secret_d%27%C3%89tat_(film,_2014)</t>
+          <t>Secret_d'État_(film,_2014)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gary Webb, journaliste au San Jose Mercury News, tente de révéler l'implication de la CIA dans le trafic de drogue pour financer les contras au Nicaragua dans les années 1980. La cocaïne arrivant en Californie est transformée en crack et vendue dans les banlieues noires de Los Angeles en provoquant ce qui fut nommé une « épidémie de crack. »
-À la suite de la parution de son article The Dark Alliance[1], il est pris à partie par ses confrères sur la fiabilité de ses sources. Mis à l’écart par son journal, il démissionne le jour de la remise de son prix Pulitzer.
+À la suite de la parution de son article The Dark Alliance, il est pris à partie par ses confrères sur la fiabilité de ses sources. Mis à l’écart par son journal, il démissionne le jour de la remise de son prix Pulitzer.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Secret_d%27%C3%89tat_(film,_2014)</t>
+          <t>Secret_d'État_(film,_2014)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Kill the Messenger
 Titre français : Secret d'État
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Secret_d%27%C3%89tat_(film,_2014)</t>
+          <t>Secret_d'État_(film,_2014)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jeremy Renner (VF : Jérôme Pauwels) : Gary Webb
 Rosemarie DeWitt : Susan Webb
@@ -616,7 +634,7 @@
 Gil Bellows (VF : Thierry Ragueneau) : Leo Walinsky
 Lucas Hedges (VF : Gabriel Bismuth-Bienaimé) : Ian Webb
 Susan Walters : la rédactrice du Los Angeles Times
-Source et légende : Version française (VF) sur RS Doublage[2] et selon le carton du doublage français cinématographique.</t>
+Source et légende : Version française (VF) sur RS Doublage et selon le carton du doublage français cinématographique.</t>
         </is>
       </c>
     </row>
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Secret_d%27%C3%89tat_(film,_2014)</t>
+          <t>Secret_d'État_(film,_2014)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,10 +664,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement
-Casting
-Tournage
-Le tournage débute le 16 juillet 2013 dans l’État de Géorgie, notamment à Atlanta[3], le comté de Cobb et Decatur[4],[5].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 16 juillet 2013 dans l’État de Géorgie, notamment à Atlanta, le comté de Cobb et Decatur,.
 </t>
         </is>
       </c>
